--- a/EL/scale2u.200g.500b_MODEL_CONDITION_FNRATE_PHYLONET.xlsx
+++ b/EL/scale2u.200g.500b_MODEL_CONDITION_FNRATE_PHYLONET.xlsx
@@ -420,7 +420,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -454,7 +454,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -488,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -522,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -539,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -573,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -590,7 +590,7 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -607,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -624,7 +624,7 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -641,7 +641,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -658,7 +658,7 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -675,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -692,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -709,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -726,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="B20">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -743,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
